--- a/nano_data/star_polymer/star_polymer_conditions.xlsx
+++ b/nano_data/star_polymer/star_polymer_conditions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Lilian\1Cytosurge data\2018-3D\Data for Berkely\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandan/drive/research/scat/nano_data/star_polymer/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB850C7F-0D9C-B64D-A460-0D162A96300E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -256,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,26 +742,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -824,7 +825,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -856,7 +857,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -888,7 +889,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -920,7 +921,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -952,7 +953,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -984,7 +985,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>47</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
@@ -1592,11 +1593,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
-      <c r="J27" s="15">
-        <v>512</v>
-      </c>
+      <c r="J27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
